--- a/testdata/FCfiles/stg/SignUp.xlsx
+++ b/testdata/FCfiles/stg/SignUp.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="490">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1467,6 +1467,36 @@
   </si>
   <si>
     <t>Automation5415!</t>
+  </si>
+  <si>
+    <t>SeleniumMvic@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumkzuR@mailinator.com</t>
+  </si>
+  <si>
+    <t>SeleniumGjhR@mailinator.com</t>
+  </si>
+  <si>
+    <t>51530023</t>
+  </si>
+  <si>
+    <t>SeleniumbLrY@mailinator.com</t>
+  </si>
+  <si>
+    <t>51530024</t>
+  </si>
+  <si>
+    <t>SeleniumxBIt@mailinator.com</t>
+  </si>
+  <si>
+    <t>51530025</t>
+  </si>
+  <si>
+    <t>SeleniumrsLU@mailinator.com</t>
+  </si>
+  <si>
+    <t>51530026</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1520,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="732">
+  <fills count="752">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5147,8 +5177,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="728">
+  <borders count="748">
     <border>
       <left/>
       <right/>
@@ -7770,6 +7900,76 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7778,7 +7978,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="392">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -8160,7 +8360,17 @@
     <xf applyBorder="true" applyFill="true" borderId="721" fillId="725" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="723" fillId="727" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="725" fillId="729" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="731" borderId="727" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="727" fillId="731" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="729" fillId="733" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="731" fillId="735" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="733" fillId="737" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="735" fillId="739" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="737" fillId="741" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="739" fillId="743" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="741" fillId="745" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="743" fillId="747" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="745" fillId="749" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="751" borderId="747" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -8507,8 +8717,8 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="366" t="s">
-        <v>464</v>
+      <c r="E2" s="384" t="s">
+        <v>482</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -8539,8 +8749,8 @@
       <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="368" t="s">
-        <v>466</v>
+      <c r="E3" s="386" t="s">
+        <v>484</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -8571,8 +8781,8 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="370" t="s">
-        <v>468</v>
+      <c r="E4" s="388" t="s">
+        <v>486</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -8603,8 +8813,8 @@
       <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="372" t="s">
-        <v>470</v>
+      <c r="E5" s="390" t="s">
+        <v>488</v>
       </c>
       <c r="F5" t="s">
         <v>40</v>
@@ -9004,8 +9214,8 @@
       <c r="T2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="367" t="s">
-        <v>465</v>
+      <c r="U2" s="385" t="s">
+        <v>483</v>
       </c>
       <c r="V2" s="10"/>
       <c r="W2" s="10" t="s">
@@ -9072,8 +9282,8 @@
       <c r="T3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="369" t="s">
-        <v>467</v>
+      <c r="U3" s="387" t="s">
+        <v>485</v>
       </c>
       <c r="V3" s="17" t="s">
         <v>95</v>
@@ -9146,8 +9356,8 @@
       <c r="T4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="371" t="s">
-        <v>469</v>
+      <c r="U4" s="389" t="s">
+        <v>487</v>
       </c>
       <c r="V4" s="10"/>
       <c r="W4" s="10" t="s">
@@ -9214,8 +9424,8 @@
       <c r="T5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="373" t="s">
-        <v>471</v>
+      <c r="U5" s="391" t="s">
+        <v>489</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
